--- a/bots/crawl_ch/output/clothes_2022-08-21.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-21.xlsx
@@ -531,29 +531,29 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3875554009</t>
+          <t>5799901001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Weiss L</t>
+          <t>Magic Matic navy ecorepel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-l/p/3875554009</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/magic-matic-navy-ecorepel/p/5799901001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -565,7 +565,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -574,34 +574,34 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Weiss L 14.95 Schweizer Franken</t>
+          <t>Magic Matic navy ecorepel 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6031467019</t>
+          <t>3875554009</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL</t>
+          <t>Naturaline Damen Bustier Weiss L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarzxl/p/6031467019</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-weiss-l/p/3875554009</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -627,108 +627,94 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL 24.95 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Weiss L 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6077154005</t>
+          <t>6031467019</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Noir One Size</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-noir-one-size/p/6077154005</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarzxl/p/6031467019</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.48/1ST</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Noir One Size 2.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6075745012</t>
+          <t>6077154005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  11 - 12</t>
+          <t>Avela Söckchen Pure Noir One Size</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-11-12/p/6075745012</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-noir-one-size/p/6077154005</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>0</v>
@@ -740,60 +726,74 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.48/1ST</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  11 - 12 5.95 Schweizer Franken</t>
+          <t>Avela Söckchen Pure Noir One Size 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5799901001</t>
+          <t>6075745012</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Magic Matic navy ecorepel</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/magic-matic-navy-ecorepel/p/5799901001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-11-12/p/6075745012</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -802,17 +802,17 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Magic Matic navy ecorepel 19.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-21 07:03:20</t>
+          <t>2022-08-21 20:58:15</t>
         </is>
       </c>
     </row>
